--- a/SERVER/Common/Data/excel/TaskDefine.xlsx
+++ b/SERVER/Common/Data/excel/TaskDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6640"/>
+    <workbookView windowWidth="24930" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="TaskDefine" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,9 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,31 +1022,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="51.0833333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="3" customWidth="1"/>
-    <col min="7" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="10" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="10.75" style="3" customWidth="1"/>
-    <col min="19" max="20" width="12.625" style="3" customWidth="1"/>
-    <col min="21" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="9" style="3" customWidth="1"/>
-    <col min="25" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="29" width="9" style="3"/>
-    <col min="31" max="16384" width="9" style="3"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -1094,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1107,9 +1092,8 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:27">
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1122,28 +1106,6 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="27:27">
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="27:27">
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="27:27">
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" customHeight="1" spans="27:27">
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="27:27">
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" customHeight="1" spans="27:27">
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" customHeight="1" spans="27:27">
-      <c r="AA12" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="3:3">
       <c r="C16" s="4"/>

--- a/SERVER/Common/Data/excel/TaskDefine.xlsx
+++ b/SERVER/Common/Data/excel/TaskDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="TaskDefine" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>清理哥布林</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>Kill</t>
   </si>
   <si>
     <t>击杀十只哥布林</t>
@@ -58,7 +58,7 @@
     <t>收集</t>
   </si>
   <si>
-    <t>collection</t>
+    <t>Collect</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>

--- a/SERVER/Common/Data/excel/TaskDefine.xlsx
+++ b/SERVER/Common/Data/excel/TaskDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -22,12 +22,15 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Decs</t>
   </si>
   <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>CompletionReward</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -40,25 +43,28 @@
     <t>名称</t>
   </si>
   <si>
-    <t>任务类型</t>
-  </si>
-  <si>
     <t>介绍</t>
   </si>
   <si>
+    <t>提交要求</t>
+  </si>
+  <si>
+    <t>完成奖励，RewardId</t>
+  </si>
+  <si>
     <t>清理哥布林</t>
   </si>
   <si>
-    <t>Kill</t>
-  </si>
-  <si>
     <t>击杀十只哥布林</t>
   </si>
   <si>
+    <t>[{"Type":"Kill", “UnitId”,1005, "Number":10}]</t>
+  </si>
+  <si>
     <t>收集</t>
   </si>
   <si>
-    <t>Collect</t>
+    <t>[{"Type":"Collect", “ItemId”,1, "Number":10}]</t>
   </si>
 </sst>
 </file>
@@ -1022,22 +1028,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="42.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.9166666666667" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,61 +1057,76 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:3">

--- a/SERVER/Common/Data/excel/TaskDefine.xlsx
+++ b/SERVER/Common/Data/excel/TaskDefine.xlsx
@@ -55,10 +55,10 @@
     <t>清理哥布林</t>
   </si>
   <si>
-    <t>击杀十只哥布林</t>
-  </si>
-  <si>
-    <t>[{"Type":"Kill", “UnitId”,1005, "Number":10}]</t>
+    <t>提交十个哥布林掉落物</t>
+  </si>
+  <si>
+    <t>[{"Type":"Collect", “ItemId”,2, "Number":10}]</t>
   </si>
   <si>
     <t>收集</t>

--- a/SERVER/Common/Data/excel/TaskDefine.xlsx
+++ b/SERVER/Common/Data/excel/TaskDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="TaskDefine" sheetId="1" r:id="rId1"/>
@@ -52,19 +52,19 @@
     <t>完成奖励，RewardId</t>
   </si>
   <si>
-    <t>清理哥布林</t>
-  </si>
-  <si>
-    <t>提交十个哥布林掉落物</t>
-  </si>
-  <si>
-    <t>[{"Type":"Collect", “ItemId”,2, "Number":10}]</t>
+    <t>取得20个哥布林的爪子</t>
+  </si>
+  <si>
+    <t>取得20个哥布林爪子</t>
+  </si>
+  <si>
+    <t>[{"Type":"Collect", "ItemId":1008, "Number":20}]</t>
   </si>
   <si>
     <t>收集</t>
   </si>
   <si>
-    <t>[{"Type":"Collect", “ItemId”,1, "Number":10}]</t>
+    <t>[{"Type":"Collect", "ItemId":1, "Number":10}]</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.3333333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.9166666666667" style="3" customWidth="1"/>
